--- a/docs/source/_resources/tables/2_overview_scales.xlsx
+++ b/docs/source/_resources/tables/2_overview_scales.xlsx
@@ -55,7 +55,7 @@
     <t xml:space="preserve">scales_classification</t>
   </si>
   <si>
-    <t xml:space="preserve">Classification of scales</t>
+    <t xml:space="preserve">Classification of scales (Aaontology)</t>
   </si>
   <si>
     <t xml:space="preserve">scales_pc</t>
@@ -200,10 +200,10 @@
   <dimension ref="A1:D13"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G9" activeCellId="0" sqref="G9"/>
+      <selection pane="topLeft" activeCell="E10" activeCellId="0" sqref="E10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.72265625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.73046875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="17.96"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="0" width="11.52"/>
